--- a/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA ADMTA\Desktop\PRESTAMOS CONTADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6742488C-D6BD-4FE6-8799-1E13CC6E9745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB214B86-080A-4070-8B1A-93BAB9A3C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,12 +106,6 @@
     <t>NIETO ALVAREZ ANGELICA</t>
   </si>
   <si>
-    <t>09-0374-03</t>
-  </si>
-  <si>
-    <t>VEGA CORTEZ ABIGAIL</t>
-  </si>
-  <si>
     <t>09-0380-03</t>
   </si>
   <si>
@@ -154,18 +148,24 @@
     <t>ENRIQUEZ GONZALEZ JOSE ALBERTO</t>
   </si>
   <si>
+    <t>09-0396-03</t>
+  </si>
+  <si>
+    <t>PEREZ ARZATE CLAUDIA</t>
+  </si>
+  <si>
+    <t>09-0397-03</t>
+  </si>
+  <si>
+    <t>VALLADARES PEREZ ALICIA</t>
+  </si>
+  <si>
     <t>15-0016-03</t>
   </si>
   <si>
     <t>OSORIO MIRANDA REYNA</t>
   </si>
   <si>
-    <t>15-0020-03</t>
-  </si>
-  <si>
-    <t>AZOTEA EVARISTO JESUS IVAN</t>
-  </si>
-  <si>
     <t>09-0004-02</t>
   </si>
   <si>
@@ -184,16 +184,16 @@
     <t>RODRIGUEZ HERNANDEZ DIONICIO</t>
   </si>
   <si>
-    <t>09-0197-03</t>
-  </si>
-  <si>
-    <t>JUAREZ GOMEZ ELVIRA</t>
-  </si>
-  <si>
     <t>09-0243-03</t>
   </si>
   <si>
     <t>DIAZ VAZQUEZ SONIA</t>
+  </si>
+  <si>
+    <t>09-0265-03</t>
+  </si>
+  <si>
+    <t>MEMBRILA MOLINA MARIA DE JESUS ALTAGRACIA</t>
   </si>
   <si>
     <t>09-0325-03</t>
@@ -573,12 +573,12 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">

--- a/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA ADMTA\Desktop\PRESTAMOS CONTADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB214B86-080A-4070-8B1A-93BAB9A3C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51999FE-A36D-413D-8A55-55CE3DA6440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,12 +76,6 @@
     <t>PRADO GARCIA DARIO</t>
   </si>
   <si>
-    <t>09-0338-03</t>
-  </si>
-  <si>
-    <t>SANTAMARIA BAUTISTA LEONEL FABIAN</t>
-  </si>
-  <si>
     <t>09-0357-03</t>
   </si>
   <si>
@@ -142,30 +136,42 @@
     <t>SANTOS ARIAS ANTONIO</t>
   </si>
   <si>
-    <t>09-0395-03</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ GONZALEZ JOSE ALBERTO</t>
-  </si>
-  <si>
-    <t>09-0396-03</t>
-  </si>
-  <si>
-    <t>PEREZ ARZATE CLAUDIA</t>
-  </si>
-  <si>
     <t>09-0397-03</t>
   </si>
   <si>
     <t>VALLADARES PEREZ ALICIA</t>
   </si>
   <si>
+    <t>09-0398-03</t>
+  </si>
+  <si>
+    <t>ZUÑIGA VICTORIA FABIOLA</t>
+  </si>
+  <si>
+    <t>09-0399-03</t>
+  </si>
+  <si>
+    <t>CUELLAR  TORRES  CARLOS EFREN</t>
+  </si>
+  <si>
+    <t>09-0400-03</t>
+  </si>
+  <si>
+    <t>CAMPOS ACOSTA VICENTE ROBERTO</t>
+  </si>
+  <si>
     <t>15-0016-03</t>
   </si>
   <si>
     <t>OSORIO MIRANDA REYNA</t>
   </si>
   <si>
+    <t>15-0021-03</t>
+  </si>
+  <si>
+    <t>CONTRERAS GARCIA CONSTANTINO</t>
+  </si>
+  <si>
     <t>09-0004-02</t>
   </si>
   <si>
@@ -188,12 +194,6 @@
   </si>
   <si>
     <t>DIAZ VAZQUEZ SONIA</t>
-  </si>
-  <si>
-    <t>09-0265-03</t>
-  </si>
-  <si>
-    <t>MEMBRILA MOLINA MARIA DE JESUS ALTAGRACIA</t>
   </si>
   <si>
     <t>09-0325-03</t>
@@ -573,12 +573,12 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>316.67</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">

--- a/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA ADMTA\Desktop\PRESTAMOS CONTADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51999FE-A36D-413D-8A55-55CE3DA6440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA91FDB5-2404-4D1D-A3B4-E795801974E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,22 +142,22 @@
     <t>VALLADARES PEREZ ALICIA</t>
   </si>
   <si>
-    <t>09-0398-03</t>
-  </si>
-  <si>
-    <t>ZUÑIGA VICTORIA FABIOLA</t>
-  </si>
-  <si>
     <t>09-0399-03</t>
   </si>
   <si>
     <t>CUELLAR  TORRES  CARLOS EFREN</t>
   </si>
   <si>
-    <t>09-0400-03</t>
-  </si>
-  <si>
-    <t>CAMPOS ACOSTA VICENTE ROBERTO</t>
+    <t>09-0401-03</t>
+  </si>
+  <si>
+    <t>TOLEDO DE LOS SANTOS CRISTHIAN</t>
+  </si>
+  <si>
+    <t>09-0403-03</t>
+  </si>
+  <si>
+    <t>GUTIERREZ PERALTA ESTEBAN LEONEL</t>
   </si>
   <si>
     <t>15-0016-03</t>
@@ -166,10 +166,10 @@
     <t>OSORIO MIRANDA REYNA</t>
   </si>
   <si>
-    <t>15-0021-03</t>
-  </si>
-  <si>
-    <t>CONTRERAS GARCIA CONSTANTINO</t>
+    <t>15-0023-03</t>
+  </si>
+  <si>
+    <t>ALAMILLO CHAVEZ RAYMUNDO</t>
   </si>
   <si>
     <t>09-0004-02</t>
@@ -573,12 +573,12 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>316.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">

--- a/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONICA ADMTA\Desktop\PRESTAMOS CONTADOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifseguridad2014-my.sharepoint.com/personal/monica_cruz_gifseguridad_com_mx/Documents/Escritorio/PRESTAMOS CONTADOR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA91FDB5-2404-4D1D-A3B4-E795801974E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF35937-09C8-4FEA-B8F7-D09016375D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>09-0001-02</t>
   </si>
@@ -58,12 +58,6 @@
     <t>ROSAS ROSAS LUIS ENRIQUE</t>
   </si>
   <si>
-    <t>09-0028-03</t>
-  </si>
-  <si>
-    <t>SANTANA ARAUZ JOSE</t>
-  </si>
-  <si>
     <t>09-0244-03</t>
   </si>
   <si>
@@ -112,24 +106,12 @@
     <t>BUSTAMANTE ARAGON OSCAR</t>
   </si>
   <si>
-    <t>09-0390-03</t>
-  </si>
-  <si>
-    <t>VILLAGRAN VILLA GABRIEL</t>
-  </si>
-  <si>
     <t>09-0391-03</t>
   </si>
   <si>
     <t>ITURBIDE JIMENEZ JUAN JESUS</t>
   </si>
   <si>
-    <t>09-0392-03</t>
-  </si>
-  <si>
-    <t>HERRERA MARTINEZ JUAN</t>
-  </si>
-  <si>
     <t>09-0394-03</t>
   </si>
   <si>
@@ -148,18 +130,18 @@
     <t>CUELLAR  TORRES  CARLOS EFREN</t>
   </si>
   <si>
-    <t>09-0401-03</t>
-  </si>
-  <si>
-    <t>TOLEDO DE LOS SANTOS CRISTHIAN</t>
-  </si>
-  <si>
     <t>09-0403-03</t>
   </si>
   <si>
     <t>GUTIERREZ PERALTA ESTEBAN LEONEL</t>
   </si>
   <si>
+    <t>09-0404-03</t>
+  </si>
+  <si>
+    <t>MONTIEL BARRAGAN EDGAR YAIR</t>
+  </si>
+  <si>
     <t>15-0016-03</t>
   </si>
   <si>
@@ -200,6 +182,12 @@
   </si>
   <si>
     <t>SEVILLA MENDEZ JULIO CESAR</t>
+  </si>
+  <si>
+    <t>09-0347-03</t>
+  </si>
+  <si>
+    <t>RUIZ FUENTES DULCE GEOVANNY</t>
   </si>
 </sst>
 </file>
@@ -570,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -677,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -721,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -732,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -754,7 +742,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -886,28 +874,6 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30">
         <v>0</v>
       </c>
     </row>

--- a/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifseguridad2014-my.sharepoint.com/personal/monica_cruz_gifseguridad_com_mx/Documents/Escritorio/PRESTAMOS CONTADOR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF35937-09C8-4FEA-B8F7-D09016375D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFCC2BA2-F429-4913-B438-D1F23FC99887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>09-0001-02</t>
   </si>
@@ -124,12 +124,6 @@
     <t>VALLADARES PEREZ ALICIA</t>
   </si>
   <si>
-    <t>09-0399-03</t>
-  </si>
-  <si>
-    <t>CUELLAR  TORRES  CARLOS EFREN</t>
-  </si>
-  <si>
     <t>09-0403-03</t>
   </si>
   <si>
@@ -142,6 +136,18 @@
     <t>MONTIEL BARRAGAN EDGAR YAIR</t>
   </si>
   <si>
+    <t>09-0405-03</t>
+  </si>
+  <si>
+    <t>RANGEL GALVAN EURIPIDES MATIAS</t>
+  </si>
+  <si>
+    <t>09-0406-03</t>
+  </si>
+  <si>
+    <t>RIVERA  FUENTES  EVELYN JAZMIN</t>
+  </si>
+  <si>
     <t>15-0016-03</t>
   </si>
   <si>
@@ -152,6 +158,12 @@
   </si>
   <si>
     <t>ALAMILLO CHAVEZ RAYMUNDO</t>
+  </si>
+  <si>
+    <t>15-0024-03</t>
+  </si>
+  <si>
+    <t>SANCHEZ VARGAS ISAIAS</t>
   </si>
   <si>
     <t>09-0004-02</t>
@@ -558,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -665,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -709,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -720,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -742,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -874,6 +886,28 @@
         <v>55</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
     </row>

--- a/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
+++ b/Vista/uploads/documentosContabilidad/prestamosNQUINCENAL .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifseguridad2014-my.sharepoint.com/personal/monica_cruz_gifseguridad_com_mx/Documents/Escritorio/PRESTAMOS CONTADOR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFCC2BA2-F429-4913-B438-D1F23FC99887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1D9439C-35DA-4D5A-B05A-FEAAE272C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,12 +40,6 @@
     <t>CRUZ RIVERA MONICA LIZETE</t>
   </si>
   <si>
-    <t>09-0021-02</t>
-  </si>
-  <si>
-    <t>SOTO GUZMAN SARAHY SUZUKY</t>
-  </si>
-  <si>
     <t>09-0022-02</t>
   </si>
   <si>
@@ -136,16 +130,22 @@
     <t>MONTIEL BARRAGAN EDGAR YAIR</t>
   </si>
   <si>
-    <t>09-0405-03</t>
-  </si>
-  <si>
-    <t>RANGEL GALVAN EURIPIDES MATIAS</t>
-  </si>
-  <si>
     <t>09-0406-03</t>
   </si>
   <si>
     <t>RIVERA  FUENTES  EVELYN JAZMIN</t>
+  </si>
+  <si>
+    <t>09-0407-03</t>
+  </si>
+  <si>
+    <t>SILVA ROMERO JACQUELINE</t>
+  </si>
+  <si>
+    <t>09-0408-03</t>
+  </si>
+  <si>
+    <t>MEDINA ALVAREZ KARLA ITZEL</t>
   </si>
   <si>
     <t>15-0016-03</t>
@@ -573,7 +573,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
